--- a/public/assets/doc/format-produk.xlsx
+++ b/public/assets/doc/format-produk.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t xml:space="preserve">package_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">price</t>
   </si>
   <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">days</t>
   </si>
   <si>
@@ -40,10 +43,16 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">is_safe_point</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cibaba</t>
   </si>
   <si>
     <t xml:space="preserve">Product Cibaba 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcs</t>
   </si>
   <si>
     <t xml:space="preserve">ini adalah produk</t>
@@ -192,19 +201,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,245 +235,323 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>5230</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>1924640</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3473</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>1250280</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5663</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>1840475</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>8</v>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>6634</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>2175952</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>8</v>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>6675</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>2029200</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>8</v>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5663</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>1840475</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>8</v>
+      <c r="G7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6779</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>374</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>2535346</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>8</v>
+      <c r="G8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6634</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>2175952</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>8</v>
+      <c r="G9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6779</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>374</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>2535346</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>8</v>
+      <c r="G10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>6675</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>2029200</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>8</v>
+      <c r="G11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>5230</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>1924640</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>8</v>
+      <c r="G12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3473</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>1250280</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>8</v>
+      <c r="G13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
